--- a/test_resource/golden_assert_pattern.xlsx
+++ b/test_resource/golden_assert_pattern.xlsx
@@ -40,7 +40,8 @@
     <t>BrowserProcessHandler::~BrowserProcessHandler() {            base::AutoLock            lock_scope(router_cfg_lock_)            router_cfg_.clear()}</t>
   </si>
   <si>
-    <t>BrowserProcessHandler::BrowserProcessHandler</t>
+    <t xml:space="preserve">BrowserProcessHandler::BrowserProcessHandler(jobject app_handler) {                    assertequal = app_handler}_x000D_
+</t>
   </si>
 </sst>
 </file>

--- a/test_resource/golden_assert_pattern.xlsx
+++ b/test_resource/golden_assert_pattern.xlsx
@@ -34,13 +34,15 @@
     <t>cpp_BrowserProcessHandler</t>
   </si>
   <si>
-    <t>BrowserProcessHandler::BrowserProcessHandler(jobject app_handler) {                    assertequal = app_handler}</t>
+    <t>BrowserProcessHandler::BrowserProcessHandler(jobject app_handler) 
+{                    assertequal = app_handler
+}</t>
   </si>
   <si>
     <t>BrowserProcessHandler::~BrowserProcessHandler() {            base::AutoLock            lock_scope(router_cfg_lock_)            router_cfg_.clear()}</t>
   </si>
   <si>
-    <t xml:space="preserve">BrowserProcessHandler::BrowserProcessHandler(jobject app_handler) {                    assertequal = app_handler}_x000D_
+    <t xml:space="preserve">{                    assertequal = app_handler_x000D_
 </t>
   </si>
 </sst>

--- a/test_resource/golden_assert_pattern.xlsx
+++ b/test_resource/golden_assert_pattern.xlsx
@@ -35,14 +35,15 @@
   </si>
   <si>
     <t>BrowserProcessHandler::BrowserProcessHandler(jobject app_handler) 
-{                    assertequal = app_handler
+{
+                    assertequal = app_handler
 }</t>
   </si>
   <si>
     <t>BrowserProcessHandler::~BrowserProcessHandler() {            base::AutoLock            lock_scope(router_cfg_lock_)            router_cfg_.clear()}</t>
   </si>
   <si>
-    <t xml:space="preserve">{                    assertequal = app_handler_x000D_
+    <t xml:space="preserve">assertequal = app_handler_x000D_
 </t>
   </si>
 </sst>
